--- a/biology/Zoologie/Inji/Inji.xlsx
+++ b/biology/Zoologie/Inji/Inji.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Inji, née vers 1960 et morte en janvier 2021 au zoo de l'Oregon, à Portland, est une femelle orang-outang vivant en captivité, la plus âgée de son espèce.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire de Sumatra (Indonésie)[1], elle arrive au zoo de l'Oregon, à Portland, à l'âge d'un an, le 30 janvier 1961[2]. Le commerce d'animaux sauvages, cause de son arrivée au zoo, est alors légal. Elle dépasse la longévité des orangs-outangs de deux décennies (atteignant l'âge de soixante-et-un ans). En 2021, sa santé se dégrade en dépit de traitements médicaux, ce qui contraint les vétérinaires du zoo à l'euthanasier. D'après Asaba Mukobi, soignant des primates, Inji noue des relations avec les autres animaux, l'équipe du zoo et le public[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Sumatra (Indonésie), elle arrive au zoo de l'Oregon, à Portland, à l'âge d'un an, le 30 janvier 1961. Le commerce d'animaux sauvages, cause de son arrivée au zoo, est alors légal. Elle dépasse la longévité des orangs-outangs de deux décennies (atteignant l'âge de soixante-et-un ans). En 2021, sa santé se dégrade en dépit de traitements médicaux, ce qui contraint les vétérinaires du zoo à l'euthanasier. D'après Asaba Mukobi, soignant des primates, Inji noue des relations avec les autres animaux, l'équipe du zoo et le public.
 </t>
         </is>
       </c>
